--- a/CGCNN_MT/evaluation/MOFSNN_subset_model_results_test.xlsx
+++ b/CGCNN_MT/evaluation/MOFSNN_subset_model_results_test.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -494,31 +473,33 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>TSD</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>MOFSNN_large</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4486852810190125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.24155044555664</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>SSD</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>MOFSNN</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>0.7385321100917431</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7120596057056199</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7691377832479835</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_no_small_set</t>
+          <t>MOFSNN_large</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -536,111 +517,127 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TSD</t>
+          <t>WS24_water</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4483834947904183</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.197021484375</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>MOFSNN_large</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0.7488584474885844</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.737855655794587</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8298056904927135</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>WS24_water4</t>
+        </is>
+      </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_no_small_set</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4486852810190125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46.24155044555664</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>MOFSNN_large</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.6621004566210046</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6175277833328572</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8230641341853238</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>WS24_acid</t>
+          <t>WS24_water</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>MOFSNN_strong</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7488584474885844</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7248004857737682</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8001387925052047</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>WS24_water4</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_no_weak_corr</t>
+          <t>MOFSNN_strong</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.639269406392694</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6018829338437658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.808641975308642</v>
+        <v>0.8140466928231548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>WS24_base</t>
+          <t>WS24_acid</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>MOFSNN_strong</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8402777777777778</v>
+        <v>0.808641975308642</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>WS24_base</t>
+        </is>
+      </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_no_weak_corr</t>
+          <t>MOFSNN_strong</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -663,44 +660,46 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>MOFSNN_strong</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7751479289940828</v>
+        <v>0.8284023668639053</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TSD</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_no_weak_corr</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.8284023668639053</v>
-      </c>
+          <t>MOFSNN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4483834947904183</v>
+      </c>
+      <c r="D11" t="n">
+        <v>45.197021484375</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>WS24_water</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -711,57 +710,65 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.776255707762557</v>
+        <v>0.7385321100917431</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7514312977099237</v>
+        <v>0.7120596057056199</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8127602359472589</v>
+        <v>0.7691377832479835</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>WS24_water</t>
+        </is>
+      </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_no_small_set</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0.7488584474885844</v>
+        <v>0.776255707762557</v>
       </c>
       <c r="F13" t="n">
-        <v>0.737855655794587</v>
+        <v>0.7514312977099237</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8298056904927135</v>
+        <v>0.8127602359472589</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>WS24_water4</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_no_weak_corr</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.7488584474885844</v>
+        <v>0.6894977168949772</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7248004857737682</v>
+        <v>0.5875191650239503</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8001387925052047</v>
+        <v>0.8174048573614326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>WS24_water4</t>
+          <t>WS24_acid</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -772,63 +779,62 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.6894977168949772</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5875191650239503</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8174048573614326</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>WS24_base</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_no_small_set</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0.6621004566210046</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6175277833328572</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8230641341853238</v>
+        <v>0.8402777777777778</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>WS24_boiling</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_no_weak_corr</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.639269406392694</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6018829338437658</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8140466928231548</v>
+        <v>0.7751479289940828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CGCNN_MT/evaluation/MOFSNN_subset_model_results_test.xlsx
+++ b/CGCNN_MT/evaluation/MOFSNN_subset_model_results_test.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,55 +513,39 @@
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>SSD</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_large</t>
+          <t>MOFSNN_strong</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>0.7385321100917431</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7259060638695356</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7916547616431131</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>WS24_water</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_large</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>0.7488584474885844</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.737855655794587</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8298056904927135</v>
-      </c>
+          <t>MOFSNN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4483834947904183</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.197021484375</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WS24_water4</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -551,21 +556,17 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.6621004566210046</v>
+        <v>0.7385321100917431</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6175277833328572</v>
+        <v>0.7259060638695356</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8230641341853238</v>
+        <v>0.7916547616431131</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>WS24_water</t>
-        </is>
-      </c>
+      <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>MOFSNN_strong</t>
@@ -573,68 +574,54 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>0.7488584474885844</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7248004857737682</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8001387925052047</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>WS24_water4</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_strong</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.639269406392694</v>
+        <v>0.7385321100917431</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6018829338437658</v>
+        <v>0.7120596057056199</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8140466928231548</v>
+        <v>0.7691377832479835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>WS24_acid</t>
+          <t>WS24_water</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_strong</t>
+          <t>MOFSNN_large</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7488584474885844</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.737855655794587</v>
       </c>
       <c r="G8" t="n">
-        <v>0.808641975308642</v>
+        <v>0.8298056904927135</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>WS24_base</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
           <t>MOFSNN_strong</t>
@@ -643,88 +630,78 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7488584474885844</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7248004857737682</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.8001387925052047</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>WS24_boiling</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN_strong</t>
+          <t>MOFSNN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.776255707762557</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7514312977099237</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8284023668639053</v>
+        <v>0.8127602359472589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TSD</t>
+          <t>WS24_water4</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4483834947904183</v>
-      </c>
-      <c r="D11" t="n">
-        <v>45.197021484375</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>MOFSNN_large</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0.6621004566210046</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6175277833328572</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8230641341853238</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>SSD</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>MOFSNN_strong</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.7385321100917431</v>
+        <v>0.639269406392694</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7120596057056199</v>
+        <v>0.6018829338437658</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7691377832479835</v>
+        <v>0.8140466928231548</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>WS24_water</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
           <t>MOFSNN</t>
@@ -733,67 +710,53 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0.776255707762557</v>
+        <v>0.6894977168949772</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7514312977099237</v>
+        <v>0.5875191650239503</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8127602359472589</v>
+        <v>0.8174048573614326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>WS24_water4</t>
+          <t>WS24_acid</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>MOFSNN_large</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.6894977168949772</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.5875191650239503</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8174048573614326</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>WS24_acid</t>
-        </is>
-      </c>
+      <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>MOFSNN_strong</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.808641975308642</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>WS24_base</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>MOFSNN</t>
@@ -802,39 +765,135 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8402777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>WS24_boiling</t>
+          <t>WS24_base</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>MOFSNN</t>
+          <t>MOFSNN_large</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>MOFSNN_strong</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8750000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>MOFSNN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8402777777777778</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>WS24_boiling</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MOFSNN_large</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MOFSNN_strong</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8284023668639053</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MOFSNN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
         <v>0.8076923076923077</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F22" t="n">
         <v>0.8076923076923077</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G22" t="n">
         <v>0.7751479289940828</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>